--- a/Files/FinalProjectPlan.xlsx
+++ b/Files/FinalProjectPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlecM\285FinalProject\285FinalProject\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlecMartinez\Wake Tech Sem 4\SGD 285\Assignment04Final\285FinalProject\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>Project Lead:</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>3 wk</t>
+  </si>
+  <si>
+    <t>Variable jump</t>
+  </si>
+  <si>
+    <t>Direction based attacks</t>
   </si>
 </sst>
 </file>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -591,7 +597,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -605,7 +611,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -619,40 +625,40 @@
         <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>34</v>
@@ -665,53 +671,53 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>32</v>
@@ -722,10 +728,10 @@
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>32</v>
@@ -735,50 +741,50 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>11</v>
@@ -791,53 +797,53 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>33</v>
@@ -847,58 +853,86 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="35" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D37">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B35"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C35"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B37"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C37"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/FinalProjectPlan.xlsx
+++ b/Files/FinalProjectPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlecMartinez\Wake Tech Sem 4\SGD 285\Assignment04Final\285FinalProject\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlecMartinez\Wake Tech Sem 4\SGD 285\Assignment04\285FinalProject\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>Project Lead:</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Direction based attacks</t>
+  </si>
+  <si>
+    <t>Object pooling for ranged moves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alec </t>
   </si>
 </sst>
 </file>
@@ -515,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -667,7 +673,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -681,7 +687,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -699,36 +705,36 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>34</v>
@@ -742,10 +748,10 @@
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>32</v>
@@ -756,7 +762,7 @@
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>37</v>
@@ -769,36 +775,36 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>11</v>
@@ -812,7 +818,7 @@
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>11</v>
@@ -825,39 +831,39 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -868,7 +874,7 @@
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>34</v>
@@ -881,58 +887,72 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D38">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B37"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C37"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B38"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C38"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/FinalProjectPlan.xlsx
+++ b/Files/FinalProjectPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>Project Lead:</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t xml:space="preserve">Alec </t>
+  </si>
+  <si>
+    <t>Bouncing Lazer</t>
+  </si>
+  <si>
+    <t>3wk</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -521,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -701,54 +710,54 @@
         <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>18</v>
-      </c>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>34</v>
@@ -762,10 +771,10 @@
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>32</v>
@@ -776,7 +785,7 @@
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>37</v>
@@ -789,36 +798,36 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>11</v>
@@ -832,7 +841,7 @@
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>11</v>
@@ -845,39 +854,39 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>33</v>
@@ -888,7 +897,7 @@
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>34</v>
@@ -901,58 +910,72 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D39">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B38"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C38"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B39"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C39"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/FinalProjectPlan.xlsx
+++ b/Files/FinalProjectPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>Project Lead:</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>Design full level layout</t>
+  </si>
+  <si>
+    <t>2wk</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -850,7 +856,7 @@
         <v>32</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -868,50 +874,50 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>34</v>
@@ -924,58 +930,72 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="39" spans="1:4" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D40">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B39"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C39"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B40"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C40"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
